--- a/Input/Medgulf_Nextcare/rateSheet1.xlsx
+++ b/Input/Medgulf_Nextcare/rateSheet1.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">male</t>
   </si>
   <si>
-    <t xml:space="preserve">10%</t>
+    <t xml:space="preserve">Consultations AED 50, medicines 15% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Annually</t>
@@ -112,10 +112,10 @@
     <t xml:space="preserve">Nextcare PCP AUH</t>
   </si>
   <si>
-    <t xml:space="preserve">0%</t>
+    <t xml:space="preserve">Consultations AED 50, medicines nil co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">20%</t>
+    <t xml:space="preserve">Consultations AED 50, medicines 20% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">female</t>
@@ -241,12 +241,14 @@
   <dimension ref="A1:K193"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F195" activeCellId="0" sqref="F195"/>
+      <selection pane="topLeft" activeCell="J166" activeCellId="0" sqref="J166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,7 +1270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -1299,7 +1301,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -1330,7 +1332,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
@@ -1361,7 +1363,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,7 +1394,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -1423,7 +1425,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>17</v>
       </c>
@@ -1454,7 +1456,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -1485,7 +1487,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -1516,7 +1518,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
@@ -1547,7 +1549,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -1578,7 +1580,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
@@ -1609,7 +1611,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -1640,7 +1642,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
@@ -1671,7 +1673,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -1702,7 +1704,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -1733,7 +1735,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -1777,7 +1779,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
@@ -1810,7 +1812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>23</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,7 +1878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>23</v>
       </c>
@@ -1909,7 +1911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>23</v>
       </c>
@@ -1942,7 +1944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>23</v>
       </c>
@@ -1975,7 +1977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -2021,7 +2023,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>27</v>
       </c>
@@ -2054,7 +2056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>27</v>
       </c>
@@ -2087,7 +2089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>27</v>
       </c>
@@ -2120,7 +2122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>27</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,7 +2188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>27</v>
       </c>
@@ -2219,7 +2221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>27</v>
       </c>
@@ -2252,7 +2254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -2283,7 +2285,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
@@ -2314,7 +2316,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
@@ -2345,7 +2347,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
@@ -2376,7 +2378,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
@@ -2407,7 +2409,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
@@ -2438,7 +2440,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>17</v>
       </c>
@@ -2469,7 +2471,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
@@ -2500,7 +2502,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>19</v>
       </c>
@@ -2531,7 +2533,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>19</v>
       </c>
@@ -2562,7 +2564,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>19</v>
       </c>
@@ -2593,7 +2595,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>19</v>
       </c>
@@ -2624,7 +2626,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
@@ -2655,7 +2657,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
@@ -2686,7 +2688,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>21</v>
       </c>
@@ -2717,7 +2719,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>21</v>
       </c>
@@ -2761,7 +2763,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>23</v>
       </c>
@@ -2794,7 +2796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>23</v>
       </c>
@@ -2827,7 +2829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>23</v>
       </c>
@@ -2860,7 +2862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>23</v>
       </c>
@@ -2893,7 +2895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>23</v>
       </c>
@@ -2926,7 +2928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>23</v>
       </c>
@@ -2959,7 +2961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>23</v>
       </c>
@@ -3005,7 +3007,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>27</v>
       </c>
@@ -3038,7 +3040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>27</v>
       </c>
@@ -3071,7 +3073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>27</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>27</v>
       </c>
@@ -3137,7 +3139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>27</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>27</v>
       </c>
@@ -3203,7 +3205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>27</v>
       </c>
@@ -3236,7 +3238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3269,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
@@ -3300,7 +3302,7 @@
       </c>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>11</v>
       </c>
@@ -3333,7 +3335,7 @@
       </c>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
@@ -3366,7 +3368,7 @@
       </c>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>17</v>
       </c>
@@ -3397,7 +3399,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>17</v>
       </c>
@@ -3430,7 +3432,7 @@
       </c>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>17</v>
       </c>
@@ -3463,7 +3465,7 @@
       </c>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>17</v>
       </c>
@@ -3496,7 +3498,7 @@
       </c>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>19</v>
       </c>
@@ -3527,7 +3529,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>19</v>
       </c>
@@ -3560,7 +3562,7 @@
       </c>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>19</v>
       </c>
@@ -3593,7 +3595,7 @@
       </c>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>19</v>
       </c>
@@ -3626,7 +3628,7 @@
       </c>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>21</v>
       </c>
@@ -3657,7 +3659,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>21</v>
       </c>
@@ -3690,7 +3692,7 @@
       </c>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>21</v>
       </c>
@@ -3723,7 +3725,7 @@
       </c>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>21</v>
       </c>
@@ -3769,7 +3771,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>23</v>
       </c>
@@ -3804,7 +3806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>23</v>
       </c>
@@ -3839,7 +3841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>23</v>
       </c>
@@ -3874,7 +3876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>23</v>
       </c>
@@ -3907,7 +3909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>23</v>
       </c>
@@ -3942,7 +3944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>23</v>
       </c>
@@ -3977,7 +3979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>23</v>
       </c>
@@ -4025,7 +4027,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>27</v>
       </c>
@@ -4060,7 +4062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>27</v>
       </c>
@@ -4095,7 +4097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>27</v>
       </c>
@@ -4130,7 +4132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>27</v>
       </c>
@@ -4163,7 +4165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>27</v>
       </c>
@@ -4198,7 +4200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>27</v>
       </c>
@@ -4233,7 +4235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>27</v>
       </c>
@@ -4268,7 +4270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
@@ -4299,7 +4301,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -4332,7 +4334,7 @@
       </c>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
@@ -4365,7 +4367,7 @@
       </c>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -4398,7 +4400,7 @@
       </c>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>17</v>
       </c>
@@ -4429,7 +4431,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>17</v>
       </c>
@@ -4462,7 +4464,7 @@
       </c>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>17</v>
       </c>
@@ -4495,7 +4497,7 @@
       </c>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>17</v>
       </c>
@@ -4528,7 +4530,7 @@
       </c>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>19</v>
       </c>
@@ -4559,7 +4561,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>19</v>
       </c>
@@ -4592,7 +4594,7 @@
       </c>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>19</v>
       </c>
@@ -4625,7 +4627,7 @@
       </c>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>19</v>
       </c>
@@ -4658,7 +4660,7 @@
       </c>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>21</v>
       </c>
@@ -4689,7 +4691,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>21</v>
       </c>
@@ -4722,7 +4724,7 @@
       </c>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>21</v>
       </c>
@@ -4755,7 +4757,7 @@
       </c>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>21</v>
       </c>
@@ -4801,7 +4803,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>23</v>
       </c>
@@ -4836,7 +4838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>23</v>
       </c>
@@ -4871,7 +4873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>23</v>
       </c>
@@ -4906,7 +4908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>23</v>
       </c>
@@ -4939,7 +4941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>23</v>
       </c>
@@ -4974,7 +4976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>23</v>
       </c>
@@ -5009,7 +5011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>23</v>
       </c>
@@ -5057,7 +5059,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>27</v>
       </c>
@@ -5092,7 +5094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>27</v>
       </c>
@@ -5127,7 +5129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>27</v>
       </c>
@@ -5162,7 +5164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>27</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>27</v>
       </c>
@@ -5230,7 +5232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>27</v>
       </c>
@@ -5265,7 +5267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>27</v>
       </c>
